--- a/GestorReceitas/Maio/relatorioMensal_maio.xlsx
+++ b/GestorReceitas/Maio/relatorioMensal_maio.xlsx
@@ -1415,11 +1415,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;€ &quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$€]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-816];[RED]\-#,##0.00\ [$€-816]"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1584,60 +1585,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1650,7 +1655,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1725,6 +1730,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF0000FF"/>
         </patternFill>
       </fill>
@@ -1742,7 +1754,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1816,107 +1828,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N:N"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="35.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="1" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="35.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="18" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="5" t="n">
@@ -1940,34 +1952,34 @@
       <c r="M2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="8" t="n">
         <f aca="false">K2   +  L2 + M2- (G2 + H2 + I2 + J2  )</f>
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="n">
@@ -1995,33 +2007,33 @@
         <f aca="false">K3   +  L3 + M3- (G3 + H3 + I3 + J3  )</f>
         <v>15</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="n">
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="n">
@@ -2049,30 +2061,30 @@
         <f aca="false">K4   +  L4 + M4- (G4 + H4 + I4 + J4  )</f>
         <v>0</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
@@ -2100,33 +2112,33 @@
         <f aca="false">K5   +  L5 + M5- (G5 + H5 + I5 + J5  )</f>
         <v>0</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
@@ -2154,30 +2166,30 @@
         <f aca="false">K6   +  L6 + M6- (G6 + H6 + I6 + J6  )</f>
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="n">
+      <c r="E7" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="n">
@@ -2206,27 +2218,27 @@
         <f aca="false">K7   +  L7 + M7- (G7 + H7 + I7 + J7  )</f>
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="n">
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
@@ -2254,30 +2266,30 @@
         <f aca="false">K8   +  L8 + M8- (G8 + H8 + I8 + J8  )</f>
         <v>0</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="n">
@@ -2306,30 +2318,30 @@
         <f aca="false">K9   +  L9 + M9- (G9 + H9 + I9 + J9  )</f>
         <v>0</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="5" t="n">
@@ -2357,30 +2369,30 @@
         <f aca="false">K10   +  L10 + M10- (G10 + H10 + I10 + J10  )</f>
         <v>0</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
@@ -2408,33 +2420,33 @@
         <f aca="false">K11   +  L11 + M11- (G11 + H11 + I11 + J11  )</f>
         <v>15</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="n">
+      <c r="E12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
@@ -2462,30 +2474,30 @@
         <f aca="false">K12   +  L12 + M12- (G12 + H12 + I12 + J12  )</f>
         <v>-15</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="n">
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="n">
@@ -2513,30 +2525,30 @@
         <f aca="false">K13   +  L13 + M13- (G13 + H13 + I13 + J13  )</f>
         <v>0</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
@@ -2565,30 +2577,30 @@
         <f aca="false">K14   +  L14 + M14- (G14 + H14 + I14 + J14  )</f>
         <v>0</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="n">
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="5" t="n">
@@ -2616,30 +2628,30 @@
         <f aca="false">K15   +  L15 + M15- (G15 + H15 + I15 + J15  )</f>
         <v>0</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="n">
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="5" t="n">
@@ -2667,33 +2679,33 @@
         <f aca="false">K16   +  L16 + M16- (G16 + H16 + I16 + J16  )</f>
         <v>7.5</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="n">
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
@@ -2721,27 +2733,27 @@
         <f aca="false">K17   +  L17 + M17- (G17 + H17 + I17 + J17  )</f>
         <v>0</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
@@ -2769,30 +2781,30 @@
         <f aca="false">K18   +  L18 + M18- (G18 + H18 + I18 + J18  )</f>
         <v>0</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4" t="n">
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="5" t="n">
@@ -2820,30 +2832,30 @@
         <f aca="false">K19   +  L19 + M19- (G19 + H19 + I19 + J19  )</f>
         <v>-8</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="n">
+      <c r="E20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
@@ -2871,30 +2883,30 @@
         <f aca="false">K20   +  L20 + M20- (G20 + H20 + I20 + J20  )</f>
         <v>0</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="3" t="n">
         <v>21</v>
       </c>
       <c r="G21" s="5" t="n">
@@ -2922,33 +2934,33 @@
         <f aca="false">K21   +  L21 + M21- (G21 + H21 + I21 + J21  )</f>
         <v>73</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4" t="n">
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="5" t="n">
@@ -2976,30 +2988,30 @@
         <f aca="false">K22   +  L22 + M22- (G22 + H22 + I22 + J22  )</f>
         <v>0</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4" t="n">
+      <c r="E23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="5" t="n">
@@ -3028,30 +3040,30 @@
         <f aca="false">K23   +  L23 + M23- (G23 + H23 + I23 + J23  )</f>
         <v>14</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="n">
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
@@ -3079,30 +3091,30 @@
         <f aca="false">K24   +  L24 + M24- (G24 + H24 + I24 + J24  )</f>
         <v>-126.5</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4" t="n">
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="n">
@@ -3130,27 +3142,27 @@
         <f aca="false">K25   +  L25 + M25- (G25 + H25 + I25 + J25  )</f>
         <v>0</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4" t="n">
+      <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
@@ -3178,30 +3190,30 @@
         <f aca="false">K26   +  L26 + M26- (G26 + H26 + I26 + J26  )</f>
         <v>0</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="n">
@@ -3229,30 +3241,30 @@
         <f aca="false">K27   +  L27 + M27- (G27 + H27 + I27 + J27  )</f>
         <v>0</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="n">
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
         <v>18</v>
       </c>
       <c r="G28" s="5" t="n">
@@ -3281,30 +3293,30 @@
         <f aca="false">K28   +  L28 + M28- (G28 + H28 + I28 + J28  )</f>
         <v>0</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="3" t="n">
         <v>18</v>
       </c>
       <c r="G29" s="5" t="n">
@@ -3332,33 +3344,33 @@
         <f aca="false">K29   +  L29 + M29- (G29 + H29 + I29 + J29  )</f>
         <v>2</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4" t="n">
+      <c r="E30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
@@ -3386,30 +3398,30 @@
         <f aca="false">K30   +  L30 + M30- (G30 + H30 + I30 + J30  )</f>
         <v>0</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4" t="n">
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="5" t="n">
@@ -3437,30 +3449,30 @@
         <f aca="false">K31   +  L31 + M31- (G31 + H31 + I31 + J31  )</f>
         <v>0</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="3" t="n">
         <v>13</v>
       </c>
       <c r="G32" s="5" t="n">
@@ -3488,30 +3500,30 @@
         <f aca="false">K32   +  L32 + M32- (G32 + H32 + I32 + J32  )</f>
         <v>0</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="n">
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="n">
         <v>19</v>
       </c>
       <c r="G33" s="5" t="n">
@@ -3540,30 +3552,30 @@
         <f aca="false">K33   +  L33 + M33- (G33 + H33 + I33 + J33  )</f>
         <v>0</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="P33" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4" t="n">
+      <c r="E34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G34" s="5" t="n">
@@ -3582,40 +3594,39 @@
         <v>0</v>
       </c>
       <c r="L34" s="5" t="n">
-        <f aca="false">8-8</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M34" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N34" s="7" t="n">
         <f aca="false">K34   +  L34 + M34- (G34 + H34 + I34 + J34  )</f>
-        <v>-10</v>
-      </c>
-      <c r="P34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="5" t="n">
@@ -3644,33 +3655,33 @@
         <f aca="false">K35   +  L35 + M35- (G35 + H35 + I35 + J35  )</f>
         <v>0</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="5" t="n">
@@ -3698,27 +3709,27 @@
         <f aca="false">K36   +  L36 + M36- (G36 + H36 + I36 + J36  )</f>
         <v>-41</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="P36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Q36" s="10" t="s">
+      <c r="Q36" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4" t="n">
+      <c r="E37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="5" t="n">
@@ -3746,30 +3757,30 @@
         <f aca="false">K37   +  L37 + M37- (G37 + H37 + I37 + J37  )</f>
         <v>0</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="O37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="P37" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="n">
+      <c r="E38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="5" t="n">
@@ -3798,30 +3809,30 @@
         <f aca="false">K38   +  L38 + M38- (G38 + H38 + I38 + J38  )</f>
         <v>0</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="5" t="n">
@@ -3850,30 +3861,30 @@
         <f aca="false">K39   +  L39 + M39- (G39 + H39 + I39 + J39  )</f>
         <v>-25</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="P39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="Q39" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4" t="n">
+      <c r="E40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="5" t="n">
@@ -3901,30 +3912,30 @@
         <f aca="false">K40   +  L40 + M40- (G40 + H40 + I40 + J40  )</f>
         <v>0</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4" t="n">
+      <c r="E41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="n">
@@ -3952,30 +3963,30 @@
         <f aca="false">K41   +  L41 + M41- (G41 + H41 + I41 + J41  )</f>
         <v>0</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
@@ -4003,30 +4014,30 @@
         <f aca="false">K42   +  L42 + M42- (G42 + H42 + I42 + J42  )</f>
         <v>0</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="3" t="n">
         <v>20</v>
       </c>
       <c r="G43" s="5" t="n">
@@ -4045,39 +4056,39 @@
         <v>0</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M43" s="7" t="n">
         <v>45</v>
       </c>
       <c r="N43" s="7" t="n">
         <f aca="false">K43   +  L43 + M43- (G43 + H43 + I43 + J43  )</f>
-        <v>-20</v>
-      </c>
-      <c r="P43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="n">
+      <c r="E44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="n">
@@ -4105,30 +4116,30 @@
         <f aca="false">K44   +  L44 + M44- (G44 + H44 + I44 + J44  )</f>
         <v>0</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="P44" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="n">
@@ -4156,33 +4167,33 @@
         <f aca="false">K45   +  L45 + M45- (G45 + H45 + I45 + J45  )</f>
         <v>22.5</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q45" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4" t="n">
+      <c r="E46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="n">
@@ -4210,27 +4221,27 @@
         <f aca="false">K46   +  L46 + M46- (G46 + H46 + I46 + J46  )</f>
         <v>0</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="n">
+      <c r="E47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="5" t="n">
@@ -4258,30 +4269,30 @@
         <f aca="false">K47   +  L47 + M47- (G47 + H47 + I47 + J47  )</f>
         <v>0</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="O47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="E48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="5" t="n">
@@ -4309,30 +4320,30 @@
         <f aca="false">K48   +  L48 + M48- (G48 + H48 + I48 + J48  )</f>
         <v>0</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="P48" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4" t="n">
+      <c r="E49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="5" t="n">
@@ -4360,33 +4371,33 @@
         <f aca="false">K49   +  L49 + M49- (G49 + H49 + I49 + J49  )</f>
         <v>15</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="P49" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q49" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="n">
+      <c r="E50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="n">
         <v>18</v>
       </c>
       <c r="G50" s="5" t="n">
@@ -4405,40 +4416,39 @@
         <v>0</v>
       </c>
       <c r="L50" s="5" t="n">
-        <f aca="false">31.5-31.5</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M50" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N50" s="7" t="n">
         <f aca="false">K50   +  L50 + M50- (G50 + H50 + I50 + J50  )</f>
-        <v>-57</v>
-      </c>
-      <c r="P50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F51" s="4" t="n">
+      <c r="F51" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="5" t="n">
@@ -4466,30 +4476,30 @@
         <f aca="false">K51   +  L51 + M51- (G51 + H51 + I51 + J51  )</f>
         <v>0</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O51" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="F52" s="4" t="n">
+      <c r="F52" s="3" t="n">
         <v>19</v>
       </c>
       <c r="G52" s="5" t="n">
@@ -4517,33 +4527,33 @@
         <f aca="false">K52   +  L52 + M52- (G52 + H52 + I52 + J52  )</f>
         <v>7</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4" t="n">
+      <c r="E53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="5" t="n">
@@ -4571,30 +4581,30 @@
         <f aca="false">K53   +  L53 + M53- (G53 + H53 + I53 + J53  )</f>
         <v>0</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="O53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4" t="n">
+      <c r="E54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="5" t="n">
@@ -4622,27 +4632,27 @@
         <f aca="false">K54   +  L54 + M54- (G54 + H54 + I54 + J54  )</f>
         <v>0</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="O54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="P54" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4" t="n">
+      <c r="E55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="5" t="n">
@@ -4670,30 +4680,30 @@
         <f aca="false">K55   +  L55 + M55- (G55 + H55 + I55 + J55  )</f>
         <v>0</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="O55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="P55" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E56" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4" t="n">
+      <c r="E56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="5" t="n">
@@ -4721,30 +4731,30 @@
         <f aca="false">K56   +  L56 + M56- (G56 + H56 + I56 + J56  )</f>
         <v>0</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="O56" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E57" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4" t="n">
+      <c r="E57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="5" t="n">
@@ -4772,30 +4782,30 @@
         <f aca="false">K57   +  L57 + M57- (G57 + H57 + I57 + J57  )</f>
         <v>0</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="P57" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="C58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E58" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4" t="n">
+      <c r="E58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="5" t="n">
@@ -4823,33 +4833,33 @@
         <f aca="false">K58   +  L58 + M58- (G58 + H58 + I58 + J58  )</f>
         <v>101</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="O58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="4" t="s">
+      <c r="P58" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="Q58" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4" t="n">
+      <c r="E59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="5" t="n">
@@ -4878,30 +4888,30 @@
         <f aca="false">K59   +  L59 + M59- (G59 + H59 + I59 + J59  )</f>
         <v>0</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="4" t="s">
+      <c r="P59" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E60" s="4" t="n">
+      <c r="E60" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F60" s="4" t="n">
+      <c r="F60" s="3" t="n">
         <v>18</v>
       </c>
       <c r="G60" s="5" t="n">
@@ -4929,33 +4939,33 @@
         <f aca="false">K60   +  L60 + M60- (G60 + H60 + I60 + J60  )</f>
         <v>0</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O60" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="P60" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="Q60" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E61" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4" t="n">
+      <c r="E61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G61" s="5" t="n">
@@ -4984,33 +4994,33 @@
         <f aca="false">K61   +  L61 + M61- (G61 + H61 + I61 + J61  )</f>
         <v>47.63</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="O61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="P61" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="Q61" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="F62" s="4" t="n">
+      <c r="F62" s="3" t="n">
         <v>19</v>
       </c>
       <c r="G62" s="5" t="n">
@@ -5039,30 +5049,30 @@
         <f aca="false">K62   +  L62 + M62- (G62 + H62 + I62 + J62  )</f>
         <v>0</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="P62" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E63" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4" t="n">
+      <c r="E63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="5" t="n">
@@ -5090,30 +5100,30 @@
         <f aca="false">K63   +  L63 + M63- (G63 + H63 + I63 + J63  )</f>
         <v>0</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="O63" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="P63" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4" t="n">
+      <c r="E64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G64" s="5" t="n">
@@ -5141,30 +5151,30 @@
         <f aca="false">K64   +  L64 + M64- (G64 + H64 + I64 + J64  )</f>
         <v>0</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="O64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="4" t="s">
+      <c r="P64" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E65" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4" t="n">
+      <c r="E65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="5" t="n">
@@ -5192,30 +5202,30 @@
         <f aca="false">K65   +  L65 + M65- (G65 + H65 + I65 + J65  )</f>
         <v>0</v>
       </c>
-      <c r="O65" s="4" t="s">
+      <c r="O65" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P65" s="4" t="s">
+      <c r="P65" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E66" s="4" t="n">
+      <c r="E66" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="F66" s="4" t="n">
+      <c r="F66" s="3" t="n">
         <v>21</v>
       </c>
       <c r="G66" s="5" t="n">
@@ -5243,33 +5253,33 @@
         <f aca="false">K66   +  L66 + M66- (G66 + H66 + I66 + J66  )</f>
         <v>73</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="4" t="s">
+      <c r="P66" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="Q66" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E67" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="n">
+      <c r="E67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="5" t="n">
@@ -5297,30 +5307,30 @@
         <f aca="false">K67   +  L67 + M67- (G67 + H67 + I67 + J67  )</f>
         <v>0</v>
       </c>
-      <c r="O67" s="4" t="s">
+      <c r="O67" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P67" s="4" t="s">
+      <c r="P67" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="n">
+      <c r="E68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G68" s="5" t="n">
@@ -5348,30 +5358,30 @@
         <f aca="false">K68   +  L68 + M68- (G68 + H68 + I68 + J68  )</f>
         <v>0</v>
       </c>
-      <c r="O68" s="4" t="s">
+      <c r="O68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P68" s="4" t="s">
+      <c r="P68" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E69" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="n">
+      <c r="E69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G69" s="5" t="n">
@@ -5399,30 +5409,30 @@
         <f aca="false">K69   +  L69 + M69- (G69 + H69 + I69 + J69  )</f>
         <v>0</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="O69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="4" t="s">
+      <c r="P69" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4" t="n">
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G70" s="5" t="n">
@@ -5450,33 +5460,33 @@
         <f aca="false">K70   +  L70 + M70- (G70 + H70 + I70 + J70  )</f>
         <v>15</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="O70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="P70" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="Q70" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4" t="n">
+      <c r="E71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="5" t="n">
@@ -5504,30 +5514,30 @@
         <f aca="false">K71   +  L71 + M71- (G71 + H71 + I71 + J71  )</f>
         <v>0</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="O71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="4" t="s">
+      <c r="P71" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E72" s="4" t="n">
+      <c r="E72" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F72" s="4" t="n">
+      <c r="F72" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G72" s="5" t="n">
@@ -5556,30 +5566,30 @@
         <f aca="false">K72   +  L72 + M72- (G72 + H72 + I72 + J72  )</f>
         <v>-53</v>
       </c>
-      <c r="P72" s="4" t="s">
+      <c r="P72" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="Q72" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E73" s="4" t="n">
+      <c r="E73" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="F73" s="4" t="n">
+      <c r="F73" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="5" t="n">
@@ -5607,30 +5617,30 @@
         <f aca="false">K73   +  L73 + M73- (G73 + H73 + I73 + J73  )</f>
         <v>0</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="O73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="4" t="s">
+      <c r="P73" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E74" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="4" t="n">
+      <c r="E74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G74" s="5" t="n">
@@ -5658,30 +5668,30 @@
         <f aca="false">K74   +  L74 + M74- (G74 + H74 + I74 + J74  )</f>
         <v>0</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="O74" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="P74" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="4" t="n">
+      <c r="E75" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F75" s="4" t="n">
+      <c r="F75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G75" s="5" t="n">
@@ -5700,39 +5710,39 @@
         <v>0</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M75" s="7" t="n">
         <v>15</v>
       </c>
       <c r="N75" s="7" t="n">
         <f aca="false">K75   +  L75 + M75- (G75 + H75 + I75 + J75  )</f>
-        <v>-10</v>
-      </c>
-      <c r="P75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="Q75" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E76" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4" t="n">
+      <c r="E76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G76" s="5" t="n">
@@ -5760,33 +5770,33 @@
         <f aca="false">K76   +  L76 + M76- (G76 + H76 + I76 + J76  )</f>
         <v>22.5</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="O76" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P76" s="4" t="s">
+      <c r="P76" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="Q76" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E77" s="4" t="n">
+      <c r="E77" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F77" s="4" t="n">
+      <c r="F77" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G77" s="5" t="n">
@@ -5814,30 +5824,30 @@
         <f aca="false">K77   +  L77 + M77- (G77 + H77 + I77 + J77  )</f>
         <v>-60.5</v>
       </c>
-      <c r="P77" s="4" t="s">
+      <c r="P77" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Q77" s="10" t="s">
+      <c r="Q77" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E78" s="4" t="n">
+      <c r="E78" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="F78" s="4" t="n">
+      <c r="F78" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G78" s="5" t="n">
@@ -5865,30 +5875,30 @@
         <f aca="false">K78   +  L78 + M78- (G78 + H78 + I78 + J78  )</f>
         <v>0</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="O78" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P78" s="4" t="s">
+      <c r="P78" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E79" s="4" t="n">
+      <c r="E79" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="F79" s="4" t="n">
+      <c r="F79" s="3" t="n">
         <v>18</v>
       </c>
       <c r="G79" s="5" t="n">
@@ -5917,30 +5927,30 @@
         <f aca="false">K79   +  L79 + M79- (G79 + H79 + I79 + J79  )</f>
         <v>-292.5</v>
       </c>
-      <c r="P79" s="4" t="s">
+      <c r="P79" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="Q79" s="11" t="s">
+      <c r="Q79" s="12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="C80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" s="4" t="n">
+      <c r="E80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G80" s="5" t="n">
@@ -5969,30 +5979,30 @@
         <f aca="false">K80   +  L80 + M80- (G80 + H80 + I80 + J80  )</f>
         <v>-7</v>
       </c>
-      <c r="P80" s="4" t="s">
+      <c r="P80" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="Q80" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4" t="n">
+      <c r="E81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G81" s="5" t="n">
@@ -6020,30 +6030,30 @@
         <f aca="false">K81   +  L81 + M81- (G81 + H81 + I81 + J81  )</f>
         <v>0</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="O81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P81" s="4" t="s">
+      <c r="P81" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="C82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4" t="n">
+      <c r="E82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G82" s="5" t="n">
@@ -6071,30 +6081,30 @@
         <f aca="false">K82   +  L82 + M82- (G82 + H82 + I82 + J82  )</f>
         <v>0</v>
       </c>
-      <c r="O82" s="2" t="s">
+      <c r="O82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="P82" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="C83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4" t="n">
+      <c r="E83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G83" s="5" t="n">
@@ -6122,30 +6132,30 @@
         <f aca="false">K83   +  L83 + M83- (G83 + H83 + I83 + J83  )</f>
         <v>0</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="O83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P83" s="4" t="s">
+      <c r="P83" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E84" s="4" t="n">
+      <c r="E84" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F84" s="4" t="n">
+      <c r="F84" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G84" s="5" t="n">
@@ -6174,33 +6184,33 @@
         <f aca="false">K84   +  L84 + M84- (G84 + H84 + I84 + J84  )</f>
         <v>0</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="O84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P84" s="4" t="s">
+      <c r="P84" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Q84" s="2" t="s">
+      <c r="Q84" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E85" s="4" t="n">
+      <c r="E85" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F85" s="4" t="n">
+      <c r="F85" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G85" s="5" t="n">
@@ -6228,33 +6238,33 @@
         <f aca="false">K85   +  L85 + M85- (G85 + H85 + I85 + J85  )</f>
         <v>7.5</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="O85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P85" s="4" t="s">
+      <c r="P85" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q85" s="2" t="s">
+      <c r="Q85" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E86" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4" t="n">
+      <c r="E86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G86" s="5" t="n">
@@ -6270,7 +6280,7 @@
         <v>12</v>
       </c>
       <c r="K86" s="5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L86" s="5" t="n">
         <v>0</v>
@@ -6280,32 +6290,32 @@
       </c>
       <c r="N86" s="7" t="n">
         <f aca="false">K86   +  L86 + M86- (G86 + H86 + I86 + J86  )</f>
-        <v>-12</v>
-      </c>
-      <c r="P86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="Q86" s="2" t="s">
+      <c r="Q86" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="C87" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E87" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4" t="n">
+      <c r="E87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G87" s="5" t="n">
@@ -6333,30 +6343,30 @@
         <f aca="false">K87   +  L87 + M87- (G87 + H87 + I87 + J87  )</f>
         <v>0</v>
       </c>
-      <c r="O87" s="4" t="s">
+      <c r="O87" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P87" s="4" t="s">
+      <c r="P87" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E88" s="4" t="n">
+      <c r="E88" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="F88" s="4" t="n">
+      <c r="F88" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G88" s="5" t="n">
@@ -6384,30 +6394,30 @@
         <f aca="false">K88   +  L88 + M88- (G88 + H88 + I88 + J88  )</f>
         <v>0</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="O88" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P88" s="4" t="s">
+      <c r="P88" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" s="4" t="n">
+      <c r="E89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G89" s="5" t="n">
@@ -6435,30 +6445,30 @@
         <f aca="false">K89   +  L89 + M89- (G89 + H89 + I89 + J89  )</f>
         <v>0</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="O89" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P89" s="4" t="s">
+      <c r="P89" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="C90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E90" s="4" t="n">
+      <c r="E90" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F90" s="4" t="n">
+      <c r="F90" s="3" t="n">
         <v>12</v>
       </c>
       <c r="G90" s="5" t="n">
@@ -6486,30 +6496,30 @@
         <f aca="false">K90   +  L90 + M90- (G90 + H90 + I90 + J90  )</f>
         <v>0</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="O90" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P90" s="4" t="s">
+      <c r="P90" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="C91" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E91" s="4" t="n">
+      <c r="E91" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="F91" s="4" t="n">
+      <c r="F91" s="3" t="n">
         <v>21</v>
       </c>
       <c r="G91" s="5" t="n">
@@ -6537,30 +6547,30 @@
         <f aca="false">K91   +  L91 + M91- (G91 + H91 + I91 + J91  )</f>
         <v>0</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="O91" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P91" s="4" t="s">
+      <c r="P91" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="C92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E92" s="4" t="n">
+      <c r="E92" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F92" s="4" t="n">
+      <c r="F92" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G92" s="5" t="n">
@@ -6588,30 +6598,30 @@
         <f aca="false">K92   +  L92 + M92- (G92 + H92 + I92 + J92  )</f>
         <v>0</v>
       </c>
-      <c r="O92" s="2" t="s">
+      <c r="O92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P92" s="4" t="s">
+      <c r="P92" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C93" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" s="4" t="n">
+      <c r="E93" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G93" s="5" t="n">
@@ -6630,40 +6640,39 @@
         <v>0</v>
       </c>
       <c r="L93" s="5" t="n">
-        <f aca="false">13.5-13.5</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="M93" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N93" s="7" t="n">
         <f aca="false">K93   +  L93 + M93- (G93 + H93 + I93 + J93  )</f>
-        <v>-19</v>
-      </c>
-      <c r="P93" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="Q93" s="2" t="s">
+      <c r="Q93" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="C94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4" t="n">
+      <c r="E94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G94" s="5" t="n">
@@ -6691,30 +6700,30 @@
         <f aca="false">K94   +  L94 + M94- (G94 + H94 + I94 + J94  )</f>
         <v>0</v>
       </c>
-      <c r="O94" s="4" t="s">
+      <c r="O94" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P94" s="4" t="s">
+      <c r="P94" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E95" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="4" t="n">
+      <c r="E95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G95" s="5" t="n">
@@ -6733,39 +6742,39 @@
         <v>0</v>
       </c>
       <c r="L95" s="5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M95" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N95" s="7" t="n">
         <f aca="false">K95   +  L95 + M95- (G95 + H95 + I95 + J95  )</f>
-        <v>-2</v>
-      </c>
-      <c r="P95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="Q95" s="2" t="s">
+      <c r="Q95" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4" t="n">
+      <c r="E96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G96" s="5" t="n">
@@ -6794,30 +6803,30 @@
         <f aca="false">K96   +  L96 + M96- (G96 + H96 + I96 + J96  )</f>
         <v>0</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="O96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P96" s="4" t="s">
+      <c r="P96" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E97" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" s="4" t="n">
+      <c r="E97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G97" s="5" t="n">
@@ -6845,30 +6854,30 @@
         <f aca="false">K97   +  L97 + M97- (G97 + H97 + I97 + J97  )</f>
         <v>0</v>
       </c>
-      <c r="O97" s="4" t="s">
+      <c r="O97" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P97" s="4" t="s">
+      <c r="P97" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" s="4" t="s">
+      <c r="C98" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E98" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" s="4" t="n">
+      <c r="E98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G98" s="5" t="n">
@@ -6896,30 +6905,30 @@
         <f aca="false">K98   +  L98 + M98- (G98 + H98 + I98 + J98  )</f>
         <v>-52.5</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="P98" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="Q98" s="10" t="s">
+      <c r="Q98" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C99" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D99" s="4" t="s">
+      <c r="C99" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E99" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" s="4" t="n">
+      <c r="E99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="5" t="n">
@@ -6947,30 +6956,30 @@
         <f aca="false">K99   +  L99 + M99- (G99 + H99 + I99 + J99  )</f>
         <v>0</v>
       </c>
-      <c r="O99" s="2" t="s">
+      <c r="O99" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="P99" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" s="4" t="s">
+      <c r="C100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="4" t="n">
+      <c r="E100" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="F100" s="4" t="n">
+      <c r="F100" s="3" t="n">
         <v>20</v>
       </c>
       <c r="G100" s="5" t="n">
@@ -6998,30 +7007,30 @@
         <f aca="false">K100   +  L100 + M100- (G100 + H100 + I100 + J100  )</f>
         <v>0</v>
       </c>
-      <c r="O100" s="2" t="s">
+      <c r="O100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P100" s="4" t="s">
+      <c r="P100" s="3" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" s="4" t="s">
+      <c r="C101" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E101" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4" t="n">
+      <c r="E101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G101" s="5" t="n">
@@ -7037,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L101" s="5" t="n">
         <v>0</v>
@@ -7047,32 +7056,32 @@
       </c>
       <c r="N101" s="7" t="n">
         <f aca="false">K101   +  L101 + M101- (G101 + H101 + I101 + J101  )</f>
-        <v>-15</v>
-      </c>
-      <c r="P101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q101" s="2" t="s">
+      <c r="Q101" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C102" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" s="4" t="s">
+      <c r="C102" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E102" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4" t="n">
+      <c r="E102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G102" s="5" t="n">
@@ -7100,30 +7109,30 @@
         <f aca="false">K102   +  L102 + M102- (G102 + H102 + I102 + J102  )</f>
         <v>0</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="O102" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P102" s="4" t="s">
+      <c r="P102" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C103" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="C103" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E103" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F103" s="4" t="n">
+      <c r="E103" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F103" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G103" s="5" t="n">
@@ -7151,30 +7160,30 @@
         <f aca="false">K103   +  L103 + M103- (G103 + H103 + I103 + J103  )</f>
         <v>0</v>
       </c>
-      <c r="O103" s="2" t="s">
+      <c r="O103" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P103" s="4" t="s">
+      <c r="P103" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="C104" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E104" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" s="4" t="n">
+      <c r="E104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G104" s="5" t="n">
@@ -7202,30 +7211,30 @@
         <f aca="false">K104   +  L104 + M104- (G104 + H104 + I104 + J104  )</f>
         <v>-12</v>
       </c>
-      <c r="P104" s="4" t="s">
+      <c r="P104" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="Q104" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C105" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="C105" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E105" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" s="4" t="n">
+      <c r="E105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G105" s="5" t="n">
@@ -7254,33 +7263,33 @@
         <f aca="false">K105   +  L105 + M105- (G105 + H105 + I105 + J105  )</f>
         <v>15</v>
       </c>
-      <c r="O105" s="2" t="s">
+      <c r="O105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P105" s="4" t="s">
+      <c r="P105" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="Q105" s="2" t="s">
+      <c r="Q105" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C106" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" s="4" t="s">
+      <c r="C106" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E106" s="4" t="n">
+      <c r="E106" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F106" s="4" t="n">
+      <c r="F106" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G106" s="5" t="n">
@@ -7309,30 +7318,30 @@
         <f aca="false">K106   +  L106 + M106- (G106 + H106 + I106 + J106  )</f>
         <v>0</v>
       </c>
-      <c r="O106" s="2" t="s">
+      <c r="O106" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P106" s="4" t="s">
+      <c r="P106" s="3" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="C107" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E107" s="4" t="n">
+      <c r="E107" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="F107" s="4" t="n">
+      <c r="F107" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G107" s="5" t="n">
@@ -7348,7 +7357,7 @@
         <v>12</v>
       </c>
       <c r="K107" s="5" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L107" s="5" t="n">
         <v>0</v>
@@ -7358,32 +7367,32 @@
       </c>
       <c r="N107" s="7" t="n">
         <f aca="false">K107   +  L107 + M107- (G107 + H107 + I107 + J107  )</f>
-        <v>-41</v>
-      </c>
-      <c r="P107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P107" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="Q107" s="2" t="s">
+      <c r="Q107" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D108" s="4" t="s">
+      <c r="C108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E108" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" s="4" t="n">
+      <c r="E108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G108" s="5" t="n">
@@ -7411,30 +7420,30 @@
         <f aca="false">K108   +  L108 + M108- (G108 + H108 + I108 + J108  )</f>
         <v>0</v>
       </c>
-      <c r="O108" s="2" t="s">
+      <c r="O108" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P108" s="4" t="s">
+      <c r="P108" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E109" s="4" t="n">
+      <c r="E109" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F109" s="4" t="n">
+      <c r="F109" s="3" t="n">
         <v>12</v>
       </c>
       <c r="G109" s="5" t="n">
@@ -7462,30 +7471,30 @@
         <f aca="false">K109   +  L109 + M109- (G109 + H109 + I109 + J109  )</f>
         <v>0</v>
       </c>
-      <c r="O109" s="2" t="s">
+      <c r="O109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P109" s="4" t="s">
+      <c r="P109" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" s="4" t="s">
+      <c r="C110" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E110" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" s="4" t="n">
+      <c r="E110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G110" s="5" t="n">
@@ -7513,33 +7522,33 @@
         <f aca="false">K110   +  L110 + M110- (G110 + H110 + I110 + J110  )</f>
         <v>15</v>
       </c>
-      <c r="O110" s="2" t="s">
+      <c r="O110" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P110" s="4" t="s">
+      <c r="P110" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="Q110" s="2" t="s">
+      <c r="Q110" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C111" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="C111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E111" s="4" t="n">
+      <c r="E111" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="F111" s="4" t="n">
+      <c r="F111" s="3" t="n">
         <v>9</v>
       </c>
       <c r="G111" s="5" t="n">
@@ -7558,40 +7567,39 @@
         <v>0</v>
       </c>
       <c r="L111" s="5" t="n">
-        <f aca="false">142.5-142.5</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M111" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N111" s="7" t="n">
         <f aca="false">K111   +  L111 + M111- (G111 + H111 + I111 + J111  )</f>
-        <v>-85</v>
-      </c>
-      <c r="P111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="Q111" s="2" t="s">
+      <c r="Q111" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D112" s="4" t="s">
+      <c r="C112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E112" s="4" t="n">
+      <c r="E112" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F112" s="4" t="n">
+      <c r="F112" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="n">
@@ -7610,40 +7618,39 @@
         <v>0</v>
       </c>
       <c r="L112" s="5" t="n">
-        <f aca="false">15.5-15.5</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M112" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N112" s="7" t="n">
         <f aca="false">K112   +  L112 + M112- (G112 + H112 + I112 + J112  )</f>
-        <v>-23</v>
-      </c>
-      <c r="P112" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="Q112" s="2" t="s">
+      <c r="Q112" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="C113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E113" s="4" t="n">
+      <c r="E113" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F113" s="4" t="n">
+      <c r="F113" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="n">
@@ -7671,33 +7678,33 @@
         <f aca="false">K113   +  L113 + M113- (G113 + H113 + I113 + J113  )</f>
         <v>65</v>
       </c>
-      <c r="O113" s="2" t="s">
+      <c r="O113" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P113" s="4" t="s">
+      <c r="P113" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="Q113" s="2" t="s">
+      <c r="Q113" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D114" s="4" t="s">
+      <c r="C114" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E114" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" s="4" t="n">
+      <c r="E114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="n">
         <v>20</v>
       </c>
       <c r="G114" s="5" t="n">
@@ -7716,39 +7723,39 @@
         <v>0</v>
       </c>
       <c r="L114" s="5" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M114" s="7" t="n">
-        <v>-191.5</v>
+        <v>0</v>
       </c>
       <c r="N114" s="7" t="n">
         <f aca="false">K114   +  L114 + M114- (G114 + H114 + I114 + J114  )</f>
-        <v>-236.5</v>
-      </c>
-      <c r="P114" s="4" t="s">
+        <v>-41.5</v>
+      </c>
+      <c r="P114" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="Q114" s="2" t="s">
+      <c r="Q114" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E115" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" s="4" t="n">
+      <c r="E115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G115" s="5" t="n">
@@ -7776,33 +7783,33 @@
         <f aca="false">K115   +  L115 + M115- (G115 + H115 + I115 + J115  )</f>
         <v>2.5</v>
       </c>
-      <c r="O115" s="2" t="s">
+      <c r="O115" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P115" s="4" t="s">
+      <c r="P115" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="Q115" s="2" t="s">
+      <c r="Q115" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="C116" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E116" s="4" t="n">
+      <c r="E116" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="F116" s="4" t="n">
+      <c r="F116" s="3" t="n">
         <v>19</v>
       </c>
       <c r="G116" s="5" t="n">
@@ -7831,30 +7838,30 @@
         <f aca="false">K116   +  L116 + M116- (G116 + H116 + I116 + J116  )</f>
         <v>0</v>
       </c>
-      <c r="O116" s="2" t="s">
+      <c r="O116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P116" s="4" t="s">
+      <c r="P116" s="3" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C117" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="C117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E117" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F117" s="4" t="n">
+      <c r="E117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G117" s="5" t="n">
@@ -7882,30 +7889,30 @@
         <f aca="false">K117   +  L117 + M117- (G117 + H117 + I117 + J117  )</f>
         <v>-39.5</v>
       </c>
-      <c r="P117" s="4" t="s">
+      <c r="P117" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="Q117" s="10" t="s">
+      <c r="Q117" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" s="4" t="s">
+      <c r="C118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E118" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" s="4" t="n">
+      <c r="E118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="n">
@@ -7933,30 +7940,30 @@
         <f aca="false">K118   +  L118 + M118- (G118 + H118 + I118 + J118  )</f>
         <v>0</v>
       </c>
-      <c r="O118" s="2" t="s">
+      <c r="O118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P118" s="4" t="s">
+      <c r="P118" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D119" s="4" t="s">
+      <c r="C119" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E119" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" s="4" t="n">
+      <c r="E119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G119" s="5" t="n">
@@ -7984,33 +7991,33 @@
         <f aca="false">K119   +  L119 + M119- (G119 + H119 + I119 + J119  )</f>
         <v>15</v>
       </c>
-      <c r="O119" s="2" t="s">
+      <c r="O119" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P119" s="4" t="s">
+      <c r="P119" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="Q119" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" s="4" t="s">
+      <c r="C120" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E120" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" s="4" t="n">
+      <c r="E120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G120" s="5" t="n">
@@ -8038,30 +8045,30 @@
         <f aca="false">K120   +  L120 + M120- (G120 + H120 + I120 + J120  )</f>
         <v>0</v>
       </c>
-      <c r="O120" s="2" t="s">
+      <c r="O120" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P120" s="4" t="s">
+      <c r="P120" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C121" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D121" s="4" t="s">
+      <c r="C121" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E121" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" s="4" t="n">
+      <c r="E121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G121" s="5" t="n">
@@ -8089,33 +8096,33 @@
         <f aca="false">K121   +  L121 + M121- (G121 + H121 + I121 + J121  )</f>
         <v>30</v>
       </c>
-      <c r="O121" s="2" t="s">
+      <c r="O121" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P121" s="4" t="s">
+      <c r="P121" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="Q121" s="2" t="s">
+      <c r="Q121" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D122" s="4" t="s">
+      <c r="C122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E122" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" s="4" t="n">
+      <c r="E122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G122" s="5" t="n">
@@ -8143,30 +8150,30 @@
         <f aca="false">K122   +  L122 + M122- (G122 + H122 + I122 + J122  )</f>
         <v>0</v>
       </c>
-      <c r="O122" s="4" t="s">
+      <c r="O122" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P122" s="4" t="s">
+      <c r="P122" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" s="4" t="s">
+      <c r="C123" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E123" s="4" t="n">
+      <c r="E123" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="F123" s="4" t="n">
+      <c r="F123" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G123" s="5" t="n">
@@ -8185,41 +8192,41 @@
         <v>0</v>
       </c>
       <c r="L123" s="5" t="n">
-        <f aca="false">75-32.5</f>
-        <v>42.5</v>
+        <f aca="false">75-32.5+22.5</f>
+        <v>65</v>
       </c>
       <c r="M123" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N123" s="7" t="n">
         <f aca="false">K123   +  L123 + M123- (G123 + H123 + I123 + J123  )</f>
-        <v>-22.5</v>
-      </c>
-      <c r="O123" s="13"/>
-      <c r="P123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O123" s="14"/>
+      <c r="P123" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="Q123" s="2" t="s">
+      <c r="Q123" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" s="4" t="s">
+      <c r="C124" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E124" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" s="4" t="n">
+      <c r="E124" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G124" s="5" t="n">
@@ -8247,30 +8254,30 @@
         <f aca="false">K124   +  L124 + M124- (G124 + H124 + I124 + J124  )</f>
         <v>0</v>
       </c>
-      <c r="O124" s="2" t="s">
+      <c r="O124" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P124" s="4" t="s">
+      <c r="P124" s="3" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C125" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D125" s="4" t="s">
+      <c r="C125" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E125" s="4" t="n">
+      <c r="E125" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F125" s="4" t="n">
+      <c r="F125" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G125" s="5" t="n">
@@ -8299,30 +8306,30 @@
         <f aca="false">K125   +  L125 + M125- (G125 + H125 + I125 + J125  )</f>
         <v>-45</v>
       </c>
-      <c r="P125" s="4" t="s">
+      <c r="P125" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="Q125" s="10" t="s">
+      <c r="Q125" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C126" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" s="4" t="s">
+      <c r="C126" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E126" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4" t="n">
+      <c r="E126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G126" s="5" t="n">
@@ -8350,30 +8357,30 @@
         <f aca="false">K126   +  L126 + M126- (G126 + H126 + I126 + J126  )</f>
         <v>0</v>
       </c>
-      <c r="O126" s="2" t="s">
+      <c r="O126" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P126" s="4" t="s">
+      <c r="P126" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C127" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" s="4" t="s">
+      <c r="C127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E127" s="4" t="n">
+      <c r="E127" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F127" s="4" t="n">
+      <c r="F127" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G127" s="5" t="n">
@@ -8401,30 +8408,30 @@
         <f aca="false">K127   +  L127 + M127- (G127 + H127 + I127 + J127  )</f>
         <v>0</v>
       </c>
-      <c r="O127" s="2" t="s">
+      <c r="O127" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P127" s="4" t="s">
+      <c r="P127" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C128" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" s="4" t="s">
+      <c r="C128" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E128" s="4" t="n">
+      <c r="E128" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="F128" s="2" t="n">
+      <c r="F128" s="3" t="n">
         <v>6</v>
       </c>
       <c r="G128" s="5" t="n">
@@ -8443,40 +8450,40 @@
         <v>0</v>
       </c>
       <c r="L128" s="5" t="n">
-        <f aca="false">53-8</f>
-        <v>45</v>
+        <f aca="false">53-8+12</f>
+        <v>57</v>
       </c>
       <c r="M128" s="7" t="n">
         <v>0</v>
       </c>
       <c r="N128" s="7" t="n">
         <f aca="false">K128   +  L128 + M128- (G128 + H128 + I128 + J128  )</f>
-        <v>-12</v>
-      </c>
-      <c r="P128" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P128" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="Q128" s="2" t="s">
+      <c r="Q128" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C129" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D129" s="4" t="s">
+      <c r="C129" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E129" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="4" t="n">
+      <c r="E129" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G129" s="5" t="n">
@@ -8505,30 +8512,30 @@
         <f aca="false">K129   +  L129 + M129- (G129 + H129 + I129 + J129  )</f>
         <v>0</v>
       </c>
-      <c r="O129" s="2" t="s">
+      <c r="O129" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P129" s="4" t="s">
+      <c r="P129" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D130" s="4" t="s">
+      <c r="C130" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E130" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" s="4" t="n">
+      <c r="E130" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G130" s="5" t="n">
@@ -8556,33 +8563,33 @@
         <f aca="false">K130   +  L130 + M130- (G130 + H130 + I130 + J130  )</f>
         <v>15</v>
       </c>
-      <c r="O130" s="2" t="s">
+      <c r="O130" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P130" s="4" t="s">
+      <c r="P130" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="Q130" s="2" t="s">
+      <c r="Q130" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C131" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" s="4" t="s">
+      <c r="C131" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E131" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" s="4" t="n">
+      <c r="E131" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G131" s="5" t="n">
@@ -8610,33 +8617,33 @@
         <f aca="false">K131   +  L131 + M131- (G131 + H131 + I131 + J131  )</f>
         <v>15</v>
       </c>
-      <c r="O131" s="2" t="s">
+      <c r="O131" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P131" s="4" t="s">
+      <c r="P131" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="Q131" s="2" t="s">
+      <c r="Q131" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C132" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" s="4" t="s">
+      <c r="C132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E132" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" s="4" t="n">
+      <c r="E132" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G132" s="5" t="n">
@@ -8664,30 +8671,30 @@
         <f aca="false">K132   +  L132 + M132- (G132 + H132 + I132 + J132  )</f>
         <v>0</v>
       </c>
-      <c r="O132" s="4" t="s">
+      <c r="O132" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P132" s="4" t="s">
+      <c r="P132" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C133" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" s="4" t="s">
+      <c r="C133" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E133" s="4" t="n">
+      <c r="E133" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F133" s="4" t="n">
+      <c r="F133" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="n">
@@ -8715,33 +8722,33 @@
         <f aca="false">K133   +  L133 + M133- (G133 + H133 + I133 + J133  )</f>
         <v>3.5</v>
       </c>
-      <c r="O133" s="2" t="s">
+      <c r="O133" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P133" s="4" t="s">
+      <c r="P133" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="Q133" s="2" t="s">
+      <c r="Q133" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="s">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C134" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" s="4" t="s">
+      <c r="C134" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E134" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" s="4" t="n">
+      <c r="E134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G134" s="5" t="n">
@@ -8769,30 +8776,30 @@
         <f aca="false">K134   +  L134 + M134- (G134 + H134 + I134 + J134  )</f>
         <v>0</v>
       </c>
-      <c r="O134" s="4" t="s">
+      <c r="O134" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P134" s="4" t="s">
+      <c r="P134" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" s="4" t="s">
+      <c r="C135" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" s="4" t="n">
+      <c r="E135" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="3" t="n">
         <v>6</v>
       </c>
       <c r="G135" s="5" t="n">
@@ -8820,30 +8827,30 @@
         <f aca="false">K135   +  L135 + M135- (G135 + H135 + I135 + J135  )</f>
         <v>0</v>
       </c>
-      <c r="O135" s="2" t="s">
+      <c r="O135" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P135" s="4" t="s">
+      <c r="P135" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" s="4" t="s">
+      <c r="C136" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E136" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" s="4" t="n">
+      <c r="E136" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G136" s="5" t="n">
@@ -8871,30 +8878,30 @@
         <f aca="false">K136   +  L136 + M136- (G136 + H136 + I136 + J136  )</f>
         <v>0</v>
       </c>
-      <c r="O136" s="4" t="s">
+      <c r="O136" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P136" s="4" t="s">
+      <c r="P136" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9" t="s">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C137" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" s="4" t="s">
+      <c r="C137" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E137" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" s="4" t="n">
+      <c r="E137" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G137" s="5" t="n">
@@ -8922,30 +8929,30 @@
         <f aca="false">K137   +  L137 + M137- (G137 + H137 + I137 + J137  )</f>
         <v>0</v>
       </c>
-      <c r="O137" s="4" t="s">
+      <c r="O137" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P137" s="4" t="s">
+      <c r="P137" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C138" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="C138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E138" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" s="4" t="n">
+      <c r="E138" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G138" s="5" t="n">
@@ -8973,30 +8980,30 @@
         <f aca="false">K138   +  L138 + M138- (G138 + H138 + I138 + J138  )</f>
         <v>0</v>
       </c>
-      <c r="O138" s="4" t="s">
+      <c r="O138" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P138" s="4" t="s">
+      <c r="P138" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C139" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="C139" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E139" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" s="4" t="n">
+      <c r="E139" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="3" t="n">
         <v>21</v>
       </c>
       <c r="G139" s="5" t="n">
@@ -9024,30 +9031,30 @@
         <f aca="false">K139   +  L139 + M139- (G139 + H139 + I139 + J139  )</f>
         <v>0</v>
       </c>
-      <c r="O139" s="2" t="s">
+      <c r="O139" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P139" s="4" t="s">
+      <c r="P139" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C140" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" s="4" t="s">
+      <c r="C140" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E140" s="4" t="n">
+      <c r="E140" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="F140" s="4" t="n">
+      <c r="F140" s="3" t="n">
         <v>11</v>
       </c>
       <c r="G140" s="5" t="n">
@@ -9075,30 +9082,30 @@
         <f aca="false">K140   +  L140 + M140- (G140 + H140 + I140 + J140  )</f>
         <v>0</v>
       </c>
-      <c r="O140" s="2" t="s">
+      <c r="O140" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P140" s="4" t="s">
+      <c r="P140" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="s">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C141" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" s="4" t="s">
+      <c r="C141" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E141" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" s="4" t="n">
+      <c r="E141" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G141" s="5" t="n">
@@ -9127,30 +9134,30 @@
         <f aca="false">K141   +  L141 + M141- (G141 + H141 + I141 + J141  )</f>
         <v>9</v>
       </c>
-      <c r="O141" s="4" t="s">
+      <c r="O141" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P141" s="4" t="s">
+      <c r="P141" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="s">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C142" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" s="4" t="s">
+      <c r="C142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E142" s="4" t="n">
+      <c r="E142" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="F142" s="4" t="n">
+      <c r="F142" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G142" s="5" t="n">
@@ -9178,30 +9185,30 @@
         <f aca="false">K142   +  L142 + M142- (G142 + H142 + I142 + J142  )</f>
         <v>0</v>
       </c>
-      <c r="O142" s="2" t="s">
+      <c r="O142" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P142" s="4" t="s">
+      <c r="P142" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C143" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" s="4" t="s">
+      <c r="C143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E143" s="4" t="n">
+      <c r="E143" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F143" s="4" t="n">
+      <c r="F143" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G143" s="5" t="n">
@@ -9229,30 +9236,30 @@
         <f aca="false">K143   +  L143 + M143- (G143 + H143 + I143 + J143  )</f>
         <v>-122.5</v>
       </c>
-      <c r="P143" s="4" t="s">
+      <c r="P143" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="Q143" s="11" t="s">
+      <c r="Q143" s="12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" s="4" t="s">
+      <c r="C144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E144" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" s="4" t="n">
+      <c r="E144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G144" s="5" t="n">
@@ -9280,27 +9287,27 @@
         <f aca="false">K144   +  L144 + M144- (G144 + H144 + I144 + J144  )</f>
         <v>-79.5</v>
       </c>
-      <c r="P144" s="4" t="s">
+      <c r="P144" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="Q144" s="10" t="s">
+      <c r="Q144" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="s">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E145" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" s="4" t="n">
+      <c r="E145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G145" s="5" t="n">
@@ -9328,27 +9335,27 @@
         <f aca="false">K145   +  L145 + M145- (G145 + H145 + I145 + J145  )</f>
         <v>0</v>
       </c>
-      <c r="O145" s="4" t="s">
+      <c r="O145" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P145" s="4" t="s">
+      <c r="P145" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="s">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E146" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" s="4" t="n">
+      <c r="E146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G146" s="5" t="n">
@@ -9376,10 +9383,10 @@
         <f aca="false">K146   +  L146 + M146- (G146 + H146 + I146 + J146  )</f>
         <v>0</v>
       </c>
-      <c r="O146" s="4" t="s">
+      <c r="O146" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P146" s="4" t="s">
+      <c r="P146" s="3" t="s">
         <v>459</v>
       </c>
     </row>
@@ -10238,13 +10245,9 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:Y146">
-    <filterColumn colId="14">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y146"/>
   <conditionalFormatting sqref="M2:N146">
-    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
